--- a/Testdata/TC_70.xlsx
+++ b/Testdata/TC_70.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+BkAAB+LCAAAAAAAAAOlGUtv48b5rxA+tQeJpOSH1phlYD3sCtXDsOg6zqUYkWOJNclRyKFt3fZSpN00pyZB06RN95Si6KY5tECRbdP/ElTe7al/od88+JS8ibYLw+Z8r/nmm+85i966C3zthkSxR8PHO2bd2NFI6FDXC2ePdxJ2VTP3d96yUO/OIf4pjnBAGBBrwBXGh3ex93hnztjiUNdvb2/rt806jWZ6wzBM/e3hYOLMSYBrXhgzHDpkJ+Nyv5trx0IdNxgShl3MsOR8vNOf9Osd4jldgA1xiGckqreT2AtJHPdC5jGPxJwzIpiRTnf4E3kwq1Hfr5tIX4PnlO3E811JV6KUcEUH2xLbC4jVMMxWzWjVmqZtmoe7rcPmXn1/t/VOypgRogGO2YREN54jABOGg4VgN1pN0zR3W809pG8kAlm5ASw09t0zcuPFxO0Q34+3soiuLvDIYXDq7YxpIL3AqwS9uQonEV7MbY/5ZDs12l1bC0KlSy7EQsc0Ig7Y741UGpHbcaTMai8GgLXnXsSWXbzcWtZ5TKLxghtpO1YLdWnIjnwSsfMF3DVxwRUAYbEoIUh/AJkzdb3YgW8vTIhrXWE/LjKVkOiCRtfxAjtkBHGscxm3oU+xCw7HvJh5TpwLWMOg04guQCTs3qa+ewxilYobEJnofgg25vu2Kb2uSi8jkbhWccFwqQFmKfkaHE3m9HYc+stJMo2dyJsSt9tOqTfiEI9Ixd1JYkYD0CIHIQkrQIZDfQn/IAirGNQljhdg/9QHQ8ZWEwSVAOgoYfTKYx3qJ0GYWbQCRRdwKJvcpTbMlmgM9xtys9OwH6bkkmgjqsxwRm+zLdcRwgwF8FHspG62jqgSdwGWXuA6RtwJP+Sx50OJKN5GAVr2i8mcELbRKSQG8Wx4zIuO1V7yPZGeQxD4Jjg4QC3z0aODmmHCj20Yh+IHds7QqBe64gNKzH7NbPC0ndOlSDRKgvEUgvhGnMkyAVcBITiF3/ZxeA3QC4/NR0ep9hswSJ75Qfp1HIJwXfh4KcCZXYow1A8dP3GJzAL98Er4JNdNUT+IR2ugAQS2hXC4tJcLng30Byi65AonPhQoBnlklqeIChgdxddVmiIInUd+escWL/8x1H/HDeoOZEhe4+oODThAh7J7MUF6kZ6neYf0wtkAh7MEEmlmxyo88zCeA+wIhzE/TpY3K862mQil9yLzuSUva5wId5KXRQGL9AodskmwoBH2h2AY7zgJRc1URQEsPMRsrlYQvT5xUiPrOWvGVdYsVfy7yEQYymPwJK+iuwIURPwsstMohGoORPyYQ+pCsce+N41KXrYRBzeWl8DU3/jptiyH6SVAuwkJ5sdkyXuQfKHg3GktM0WIFeqAStbkbLfV2DP2W5C7+RqJI59QaHLDAEi1LpmyQ61LA8IL26HWbh9qJfSCxh6D25W2UvH3xlKK/Og4Iu8m0GAvhWpD8N8SoIyHDDvzQuyv0WWInN4aQtmd+8sCpTz5gDpAeP/hv1Zff7Z68vXq6bP//uO3q0//ufr5F/DRbsMvhXz+m/s/fyNPLZmQjac+EYrZ7VbLaO6C/2UgpNIGVH83cZiAXV6KbiBbI9XVikWn1++cDNoiz2TAlJ03GgmPkQFe0iRfTuRhxEbipvXUQSSJZad5S61L2C7hLYAMTt7A3pAydRH/EKO0xcsXX7x88fxBbmWwvOZAqWnUjN3vUZLMJi9JxsaSxAcD2felY8ceHzvMZoG4QoPOYHqCNi+zU9+1mqbxyDg4MMwsx7uZX28iqqKUJBvP9AqfBHVoErJomblAcZ0ihf/bECwZWkZEYaFc9W/vv/rLRyUqZV0FKUsB5WgSSW/S04UQPTqztcn4/KzT0+zehPtJjivQSeGvIVa7Z3FVdJr1qCu51CaoFPdaxuqOJxFNFmsZI4duoNyYO9axFU5hm3XVctwGenVrn/1iE4M6ifKZ89Bj2SRXhKESRoIKeBWCn3zz77+/t3r++erpH+7f/+Xq2YerD56V5KjdsjEHXBcCpLjMPBmymKosFQi6mAibXhs/LVQSBeQ94in1QhZbprkn+kO1RMBrcnHiL+oHUN2EZGE2gFcg6Ec47t0xFazWCOllACi6wFBYad5JZwCZl3Pz/ud3v7//9K/3H3/16r0/rZ7+cfWrj1+++PzVl89kJN1/9NX9B1+qzF1N7kIX3p/Lhk8T856j8QjTeJnWvn3yay2kTIP2QktElvn2yScFYVxR0YjkkqF9yxQpq7BGWmTmfFpBlUyHEl/GImt9h5elZkahChNdeE6+yTs1Lgp6UE0gftC3a0lMNAqd0w/hJGXinPn78ikWWSZPD4yG2VBYqQ0/whTHBdOf+HSKfS1FiHGqQlLiej1DTiv2OxmM20eDnEQqMY5cmL4MPhPyD5S2j7xM9ON0lQ0ROQSw0OM5ic8H4DWydVQmuZDOdDVKXh25/F3RMgwxq5VrXokC5vEokt1OqB4nJ8kCGt90XH4YL95hCr3uSLalxe43X/e7ZTysC1gobmU0Bwi8yFAKJbNVP+ZTq+xcR9w0+RJwpbcbMId6f5Td040HV6LzxNOLIhptzD45JiUbQtMMGUXPLZ7RiDuVDbab31UKSDNe9iGnPHVC2iU+Yds9zuk59xA64DflhbvflrUfj31XGXO7KSMzSy6g+ELJHeX/faCUznYURdAs8eeMrV8U0yH1DGbbLbWRRxGMfNqD3dWT37EXxextngnUl4RcZpBL2XUKEvkh1pfWbksCgEAvStdLaqahy+Q7MfUHXuBtOQEaaXyXhYAtFwvZlvW38xReWkbkDprGggRIitOfQdngY8x20qTDQi7N+Pm7TOzN5mxbxQ6mmLhkatScKWnUdl1o7h8RAhOBCb+x04AxYo8/6ijhkDk8crvlJnp6Yfn/31j/A6MkkU74GQAA</t>
+          <t>zxsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD0xfn4kQ1vYovCRZ2HMUdstkXVO6uxEXa3aa7OonfRkKwMMs+sbtiYWEZXkCIWfYBJLSDlv+ywpnhib/AqUtf7czQYWTNdJ3vnFNVp86tatA7dzNfuyFRTMPgyYa5aWxoJHBDjwZXTzYSdtkwdzbesVHvziX+CY7wjDBg1kAqiPfvYvpkY8rYfF/Xb29vN2+bm2F0pVuGYervDgdjd0pmuEGDmOHAJRuZlPd2qQ0bdbzZkDDsYYal5JON/ri/2SHU7QJtiAN8RaLNdhLTgMRxL2CUURJzyYhgRjrd4ffkxmxrc2fTRPoKPedsJ9T3JF+JU9IVH0xLHDojtmVYRsNoNawtx9jd397db4JUy3wvFcwY0QDHbEyiG+oKwpjh2VyIGy1ry9jd3m3CbGuZQFduABuNfO+U3NCYeB3i+3Eti+jqAA9cBruuZ0wD6QVZpejxSziK8HzqUOaTuuKHYURcMNSj5j4mt6NI2c+ZDwB1pjRiiy5e1NZ1FpNoNOfWqCdqo24YsAOfROxsDodKPDhzAGwWJQTpD4C5UJfGLnzTICGefYn9uChUAtF5GF3Hc+ySYwhYneu4DfwQe+BZjMaMunGuYAVBJ1E4B5Uwezv0vUNQq5a4BshU9wOwMZ+3HYbXVe1lEAknEO4AhzrDLGVfoaPxNLwdBf5inExiN6IT4nXbKfdaDPHQU9KdJGbhDFaRk5CkFSjDob6APxBtVQR1iUtn2D/xwZCx3QRFJQI6SFh4SVkn9JNZkFm0QkXnsCmH3KU2zIZoBOcbcLOHQT9I2SXTWqgscBreZlOuAsIMBfJB7KZutgpUmbtASw9wFRFnwjd5SH2oBcXTKFDLfjGeEsLWOoVEEE97h7y62O0FnxPpOQWBb4KDAxUSp7HTgJ9lOIaxL34wcwajXuDlfKbVaJoFvhREx8lsNIEgvhF7sk3AKiQEu/DbPg6ugXpO2fT4IF39GgTJPT/Iv4ohCNe5jxeCnNmlSEP9wPUTj8gs0A8uhU/ytSnuB3G0QhpAYPMkQC5x4kOhYZAmrvIMUCGjg/i6ylMkobPIT4/Q5mU8hjruerNNFxIgr1WbbjjjBB3K5/kY6UV+nsVd0guuBji4SiBPZmaq0jMH4iHuRDiI+X6ytFjxpfVMKDW7TNe2PItRIrxFnkUIKNIrfMghs3kYYX8IhqGHSSBqn8r5YMkhZlM1guD0iVuwciqaSZVXli78bWwiyuQ2eA5XwVshCia+F9kxFCIxJyK+zWHoQdHGPp1EJSdai8GJ5RUudSe+u5rVLj0EaBshf3yXLHgvkQ8U3VnMiW2mgBihDizJHp9utaxtY6cFqZmPkdjyUQjNajADVq1LJmxf64YzwuvWvtZu72sleB7GlMHpSlup8Hq0lqI8OozIDxNolBdiaUPw3xKhjEMCvaIB9lf4MiDnt4dQVaf+osApdz4IXWC8/+ify68+Wz79avns+X/+8avl73+0/MmP4aPdhr8U+OKX93/+Wu5aCiEHT3wiFua0Wy2juQX+l5EQt7kuqr6XuEzQLi5Esc/GSHWnYtDp9TtHgzY4WoGYivM+IuExMsCLMMmHY7kZMZE4aT11EMliO0JfPi6hXcIrvAxO3ojekDJ3EX9IUNri1cs/vHr54kFpZbBSxbEaxlbDMN9WccwmrzjG2orDG3zZ1qnrg7nXMOBnFZgrPOgUbkHQxWV26nt20zT2jN1dw0zXD7TUr9cxVSGlycFXekVOkjphErBokblAcZyCwv8dCJYMlhFRGChX/dsHr//ycYlLWVdRylpgcWESSW/S04FQfXzqaOPR2Wmnpzm9MfeTHCvwSeVvYFazZ3FVdJrVqCu51DqqVPdGweqMR1GYzFcyRk5dw7k2d6yiFUlhm9Wl5dgafnVqn/10nYDaifKZs4Ayu911tFmQOZmgoRIiSQVcheCnX//r7+8vX3y+fPa7+w9+tnz+0fLD5yU9arbsFgOuCwFSHGaeDFlMVZYKBZ2PhU2vje8XKoki8hbwJKQBi23T3BbtnxoikDW5OvEv6s+gugnNwmxAr1DQd3Dcu2MqWO1jpJcJsNA5hsIa5o1yRpB5OTfvv3/z2/tf//X+ky9fv/+n5bM/Ln/+yauXn7/+4rmMpPuPv7z/8AuVuavJXayFt9+y49PEdc7VeIRpvExr3zz9hRaETIP2QktElvnm6acFZXyhohHJNUP7li2kvIQV1qIwl9MKS8nWUJLLRGSt7/Cy1Mw4VGEK59TNJ3mvwVVBD6oJ4Ft9p5HERAuhc/o27KTMnAv/r3JKRJbJk13DMi2FytXwLUxwXDD9kR9OsK+lgLgtVVhKUm8WyHnFfEeDUftgkLPIRYwiDy5XBr/y8Q/Uj9MGMrsX5BRAoa9zE5/faVfYViGUfhVSmK5uh5cHHn8TtA3DMBviVyhdJQ64YkeR7HAC9bA4TubQ7KY34Idx8bRS6G+PZSta7Hjzcb9bxmFcQKGglWFOELjISgqSGaof84uo7FaPuWnyIWCl5xgwh3o7lB3TDYVj0Hmy6UVRGK3NODmSsg2hUYYsoucWz3h0PqVsqr38rFJCmuWyD96WZ8kw7BKfsNoPa6n0ELrex8rC2dcV7ccj31PGrHezyMySKyi+LnJHqbuYgyiCVoi/RdR+DhzQ4Lpfb/e26+42t5sYb2OL7JC91q7b9JotyzW2vT3i7UAzKJTymyZXwW8i/JpWbxJoAMvi+Z36FG7ZNbVJAwtBfu8ES4mAVIk9G6NDGsXsXZ6i1JekXGSUC9kOCxb5IcYX9o4cA64X59JLi07TC5Pv0KE/oDNa82ZqpDmorAS8YD6X7WLd84SSd0zuoJktaIBkPfkBlDN+vaqnTQYV5PhMPtU1Tia11emp8Ang3K8eJ93zoC97vLR41KX+/7EA0Xg9VkU/iOnVlNU9V2tvrwkBajWsS9dtbMGgAcV40vDw5Z5pGJdNb9viT3FKORQHSm5rTsJLCo0T7NeX0yv/LWf/F5hpcN/PGwAA</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +53,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +97,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,241 +409,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>-18024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>-142</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>-134</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2">
-        <v>-131</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2">
-        <v>-158</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2">
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2">
-        <v>-18024</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
         <v>-153</v>
       </c>
     </row>
@@ -643,4 +441,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>7</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6387B699-4CA0-418F-8DC9-B213A0972166}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_70.xlsx
+++ b/Testdata/TC_70.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>zxsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD0xfn4kQ1vYovCRZ2HMUdstkXVO6uxEXa3aa7OonfRkKwMMs+sbtiYWEZXkCIWfYBJLSDlv+ywpnhib/AqUtf7czQYWTNdJ3vnFNVp86tatA7dzNfuyFRTMPgyYa5aWxoJHBDjwZXTzYSdtkwdzbesVHvziX+CY7wjDBg1kAqiPfvYvpkY8rYfF/Xb29vN2+bm2F0pVuGYervDgdjd0pmuEGDmOHAJRuZlPd2qQ0bdbzZkDDsYYal5JON/ri/2SHU7QJtiAN8RaLNdhLTgMRxL2CUURJzyYhgRjrd4ffkxmxrc2fTRPoKPedsJ9T3JF+JU9IVH0xLHDojtmVYRsNoNawtx9jd397db4JUy3wvFcwY0QDHbEyiG+oKwpjh2VyIGy1ry9jd3m3CbGuZQFduABuNfO+U3NCYeB3i+3Eti+jqAA9cBruuZ0wD6QVZpejxSziK8HzqUOaTuuKHYURcMNSj5j4mt6NI2c+ZDwB1pjRiiy5e1NZ1FpNoNOfWqCdqo24YsAOfROxsDodKPDhzAGwWJQTpD4C5UJfGLnzTICGefYn9uChUAtF5GF3Hc+ySYwhYneu4DfwQe+BZjMaMunGuYAVBJ1E4B5Uwezv0vUNQq5a4BshU9wOwMZ+3HYbXVe1lEAknEO4AhzrDLGVfoaPxNLwdBf5inExiN6IT4nXbKfdaDPHQU9KdJGbhDFaRk5CkFSjDob6APxBtVQR1iUtn2D/xwZCx3QRFJQI6SFh4SVkn9JNZkFm0QkXnsCmH3KU2zIZoBOcbcLOHQT9I2SXTWqgscBreZlOuAsIMBfJB7KZutgpUmbtASw9wFRFnwjd5SH2oBcXTKFDLfjGeEsLWOoVEEE97h7y62O0FnxPpOQWBb4KDAxUSp7HTgJ9lOIaxL34wcwajXuDlfKbVaJoFvhREx8lsNIEgvhF7sk3AKiQEu/DbPg6ugXpO2fT4IF39GgTJPT/Iv4ohCNe5jxeCnNmlSEP9wPUTj8gs0A8uhU/ytSnuB3G0QhpAYPMkQC5x4kOhYZAmrvIMUCGjg/i6ylMkobPIT4/Q5mU8hjruerNNFxIgr1WbbjjjBB3K5/kY6UV+nsVd0guuBji4SiBPZmaq0jMH4iHuRDiI+X6ytFjxpfVMKDW7TNe2PItRIrxFnkUIKNIrfMghs3kYYX8IhqGHSSBqn8r5YMkhZlM1guD0iVuwciqaSZVXli78bWwiyuQ2eA5XwVshCia+F9kxFCIxJyK+zWHoQdHGPp1EJSdai8GJ5RUudSe+u5rVLj0EaBshf3yXLHgvkQ8U3VnMiW2mgBihDizJHp9utaxtY6cFqZmPkdjyUQjNajADVq1LJmxf64YzwuvWvtZu72sleB7GlMHpSlup8Hq0lqI8OozIDxNolBdiaUPw3xKhjEMCvaIB9lf4MiDnt4dQVaf+osApdz4IXWC8/+ify68+Wz79avns+X/+8avl73+0/MmP4aPdhr8U+OKX93/+Wu5aCiEHT3wiFua0Wy2juQX+l5EQt7kuqr6XuEzQLi5Esc/GSHWnYtDp9TtHgzY4WoGYivM+IuExMsCLMMmHY7kZMZE4aT11EMliO0JfPi6hXcIrvAxO3ojekDJ3EX9IUNri1cs/vHr54kFpZbBSxbEaxlbDMN9WccwmrzjG2orDG3zZ1qnrg7nXMOBnFZgrPOgUbkHQxWV26nt20zT2jN1dw0zXD7TUr9cxVSGlycFXekVOkjphErBokblAcZyCwv8dCJYMlhFRGChX/dsHr//ycYlLWVdRylpgcWESSW/S04FQfXzqaOPR2Wmnpzm9MfeTHCvwSeVvYFazZ3FVdJrVqCu51DqqVPdGweqMR1GYzFcyRk5dw7k2d6yiFUlhm9Wl5dgafnVqn/10nYDaifKZs4Ayu911tFmQOZmgoRIiSQVcheCnX//r7+8vX3y+fPa7+w9+tnz+0fLD5yU9arbsFgOuCwFSHGaeDFlMVZYKBZ2PhU2vje8XKoki8hbwJKQBi23T3BbtnxoikDW5OvEv6s+gugnNwmxAr1DQd3Dcu2MqWO1jpJcJsNA5hsIa5o1yRpB5OTfvv3/z2/tf//X+ky9fv/+n5bM/Ln/+yauXn7/+4rmMpPuPv7z/8AuVuavJXayFt9+y49PEdc7VeIRpvExr3zz9hRaETIP2QktElvnm6acFZXyhohHJNUP7li2kvIQV1qIwl9MKS8nWUJLLRGSt7/Cy1Mw4VGEK59TNJ3mvwVVBD6oJ4Ft9p5HERAuhc/o27KTMnAv/r3JKRJbJk13DMi2FytXwLUxwXDD9kR9OsK+lgLgtVVhKUm8WyHnFfEeDUftgkLPIRYwiDy5XBr/y8Q/Uj9MGMrsX5BRAoa9zE5/faVfYViGUfhVSmK5uh5cHHn8TtA3DMBviVyhdJQ64YkeR7HAC9bA4TubQ7KY34Idx8bRS6G+PZSta7Hjzcb9bxmFcQKGglWFOELjISgqSGaof84uo7FaPuWnyIWCl5xgwh3o7lB3TDYVj0Hmy6UVRGK3NODmSsg2hUYYsoucWz3h0PqVsqr38rFJCmuWyD96WZ8kw7BKfsNoPa6n0ELrex8rC2dcV7ccj31PGrHezyMySKyi+LnJHqbuYgyiCVoi/RdR+DhzQ4Lpfb/e26+42t5sYb2OL7JC91q7b9JotyzW2vT3i7UAzKJTymyZXwW8i/JpWbxJoAMvi+Z36FG7ZNbVJAwtBfu8ES4mAVIk9G6NDGsXsXZ6i1JekXGSUC9kOCxb5IcYX9o4cA64X59JLi07TC5Pv0KE/oDNa82ZqpDmorAS8YD6X7WLd84SSd0zuoJktaIBkPfkBlDN+vaqnTQYV5PhMPtU1Tia11emp8Ang3K8eJ93zoC97vLR41KX+/7EA0Xg9VkU/iOnVlNU9V2tvrwkBajWsS9dtbMGgAcV40vDw5Z5pGJdNb9viT3FKORQHSm5rTsJLCo0T7NeX0yv/LWf/F5hpcN/PGwAA</t>
+          <t>+BkAAB+LCAAAAAAAAAOlGUtv48b5rxA+tQeJpOSH1phlYD3sCtXDsOg6zqUYkWOJNclRyKFt3fZSpN00pyZB06RN95Si6KY5tECRbdP/ElTe7al/od88+JS8ibYLw+Z8r/nmm+85i966C3zthkSxR8PHO2bd2NFI6FDXC2ePdxJ2VTP3d96yUO/OIf4pjnBAGBBrwBXGh3ex93hnztjiUNdvb2/rt806jWZ6wzBM/e3hYOLMSYBrXhgzHDpkJ+Nyv5trx0IdNxgShl3MsOR8vNOf9Osd4jldgA1xiGckqreT2AtJHPdC5jGPxJwzIpiRTnf4E3kwq1Hfr5tIX4PnlO3E811JV6KUcEUH2xLbC4jVMMxWzWjVmqZtmoe7rcPmXn1/t/VOypgRogGO2YREN54jABOGg4VgN1pN0zR3W809pG8kAlm5ASw09t0zcuPFxO0Q34+3soiuLvDIYXDq7YxpIL3AqwS9uQonEV7MbY/5ZDs12l1bC0KlSy7EQsc0Ig7Y741UGpHbcaTMai8GgLXnXsSWXbzcWtZ5TKLxghtpO1YLdWnIjnwSsfMF3DVxwRUAYbEoIUh/AJkzdb3YgW8vTIhrXWE/LjKVkOiCRtfxAjtkBHGscxm3oU+xCw7HvJh5TpwLWMOg04guQCTs3qa+ewxilYobEJnofgg25vu2Kb2uSi8jkbhWccFwqQFmKfkaHE3m9HYc+stJMo2dyJsSt9tOqTfiEI9Ixd1JYkYD0CIHIQkrQIZDfQn/IAirGNQljhdg/9QHQ8ZWEwSVAOgoYfTKYx3qJ0GYWbQCRRdwKJvcpTbMlmgM9xtys9OwH6bkkmgjqsxwRm+zLdcRwgwF8FHspG62jqgSdwGWXuA6RtwJP+Sx50OJKN5GAVr2i8mcELbRKSQG8Wx4zIuO1V7yPZGeQxD4Jjg4QC3z0aODmmHCj20Yh+IHds7QqBe64gNKzH7NbPC0ndOlSDRKgvEUgvhGnMkyAVcBITiF3/ZxeA3QC4/NR0ep9hswSJ75Qfp1HIJwXfh4KcCZXYow1A8dP3GJzAL98Er4JNdNUT+IR2ugAQS2hXC4tJcLng30Byi65AonPhQoBnlklqeIChgdxddVmiIInUd+escWL/8x1H/HDeoOZEhe4+oODThAh7J7MUF6kZ6neYf0wtkAh7MEEmlmxyo88zCeA+wIhzE/TpY3K862mQil9yLzuSUva5wId5KXRQGL9AodskmwoBH2h2AY7zgJRc1URQEsPMRsrlYQvT5xUiPrOWvGVdYsVfy7yEQYymPwJK+iuwIURPwsstMohGoORPyYQ+pCsce+N41KXrYRBzeWl8DU3/jptiyH6SVAuwkJ5sdkyXuQfKHg3GktM0WIFeqAStbkbLfV2DP2W5C7+RqJI59QaHLDAEi1LpmyQ61LA8IL26HWbh9qJfSCxh6D25W2UvH3xlKK/Og4Iu8m0GAvhWpD8N8SoIyHDDvzQuyv0WWInN4aQtmd+8sCpTz5gDpAeP/hv1Zff7Z68vXq6bP//uO3q0//ufr5F/DRbsMvhXz+m/s/fyNPLZmQjac+EYrZ7VbLaO6C/2UgpNIGVH83cZiAXV6KbiBbI9XVikWn1++cDNoiz2TAlJ03GgmPkQFe0iRfTuRhxEbipvXUQSSJZad5S61L2C7hLYAMTt7A3pAydRH/EKO0xcsXX7x88fxBbmWwvOZAqWnUjN3vUZLMJi9JxsaSxAcD2felY8ceHzvMZoG4QoPOYHqCNi+zU9+1mqbxyDg4MMwsx7uZX28iqqKUJBvP9AqfBHVoErJomblAcZ0ihf/bECwZWkZEYaFc9W/vv/rLRyUqZV0FKUsB5WgSSW/S04UQPTqztcn4/KzT0+zehPtJjivQSeGvIVa7Z3FVdJr1qCu51CaoFPdaxuqOJxFNFmsZI4duoNyYO9axFU5hm3XVctwGenVrn/1iE4M6ifKZ89Bj2SRXhKESRoIKeBWCn3zz77+/t3r++erpH+7f/+Xq2YerD56V5KjdsjEHXBcCpLjMPBmymKosFQi6mAibXhs/LVQSBeQ94in1QhZbprkn+kO1RMBrcnHiL+oHUN2EZGE2gFcg6Ec47t0xFazWCOllACi6wFBYad5JZwCZl3Pz/ud3v7//9K/3H3/16r0/rZ7+cfWrj1+++PzVl89kJN1/9NX9B1+qzF1N7kIX3p/Lhk8T856j8QjTeJnWvn3yay2kTIP2QktElvn2yScFYVxR0YjkkqF9yxQpq7BGWmTmfFpBlUyHEl/GImt9h5elZkahChNdeE6+yTs1Lgp6UE0gftC3a0lMNAqd0w/hJGXinPn78ikWWSZPD4yG2VBYqQ0/whTHBdOf+HSKfS1FiHGqQlLiej1DTiv2OxmM20eDnEQqMY5cmL4MPhPyD5S2j7xM9ON0lQ0ROQSw0OM5ic8H4DWydVQmuZDOdDVKXh25/F3RMgwxq5VrXokC5vEokt1OqB4nJ8kCGt90XH4YL95hCr3uSLalxe43X/e7ZTysC1gobmU0Bwi8yFAKJbNVP+ZTq+xcR9w0+RJwpbcbMId6f5Td040HV6LzxNOLIhptzD45JiUbQtMMGUXPLZ7RiDuVDbab31UKSDNe9iGnPHVC2iU+Yds9zuk59xA64DflhbvflrUfj31XGXO7KSMzSy6g+ELJHeX/faCUznYURdAs8eeMrV8U0yH1DGbbLbWRRxGMfNqD3dWT37EXxextngnUl4RcZpBL2XUKEvkh1pfWbksCgEAvStdLaqahy+Q7MfUHXuBtOQEaaXyXhYAtFwvZlvW38xReWkbkDprGggRIitOfQdngY8x20qTDQi7N+Pm7TOzN5mxbxQ6mmLhkatScKWnUdl1o7h8RAhOBCb+x04AxYo8/6ijhkDk8crvlJnp6Yfn/31j/A6MkkU74GQAA</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,14 +53,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -394,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,31 +401,241 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>-149</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>-18024</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>-143</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>-145</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>-150</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>-134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>-18024</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
         <v>-153</v>
       </c>
     </row>
@@ -441,37 +643,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>7</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6387B699-4CA0-418F-8DC9-B213A0972166}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>